--- a/香港現在上映電影 2025-03-27.xlsx
+++ b/香港現在上映電影 2025-03-27.xlsx
@@ -70,12 +70,12 @@
     <t>BJ單身日記：我為仔狂</t>
   </si>
   <si>
+    <t>搖滾詩人：未知的傳奇</t>
+  </si>
+  <si>
     <t>無痛俠</t>
   </si>
   <si>
-    <t>搖滾詩人：未知的傳奇</t>
-  </si>
-  <si>
     <t>猴</t>
   </si>
   <si>
@@ -124,12 +124,12 @@
     <t>Bridget Jones: Mad About the Boy</t>
   </si>
   <si>
+    <t>A Complete Unknown</t>
+  </si>
+  <si>
     <t>Novocaine</t>
   </si>
   <si>
-    <t>A Complete Unknown</t>
-  </si>
-  <si>
     <t>The Monkey</t>
   </si>
   <si>
@@ -175,12 +175,12 @@
     <t>13/2/2025</t>
   </si>
   <si>
+    <t>20/2/2025</t>
+  </si>
+  <si>
     <t>13/3/2025</t>
   </si>
   <si>
-    <t>20/2/2025</t>
-  </si>
-  <si>
     <t>12/2/2025</t>
   </si>
   <si>
@@ -211,10 +211,10 @@
     <t>Romance/Comedy</t>
   </si>
   <si>
+    <t>Biography/Drama/Music</t>
+  </si>
+  <si>
     <t>Action/Comedy/Mystery &amp; Thriller</t>
-  </si>
-  <si>
-    <t>Biography/Drama/Music</t>
   </si>
   <si>
     <t>Horror/Comedy</t>
@@ -993,7 +993,7 @@
         <v>36</v>
       </c>
       <c r="C11" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>53</v>
@@ -1002,19 +1002,19 @@
         <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G11" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" s="1">
-        <v>167</v>
+        <v>332</v>
       </c>
       <c r="I11" s="1">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="J11" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1025,7 +1025,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>54</v>
@@ -1034,19 +1034,19 @@
         <v>66</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1">
         <v>82</v>
       </c>
       <c r="H12" s="1">
-        <v>332</v>
+        <v>169</v>
       </c>
       <c r="I12" s="1">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J12" s="1">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1121,10 +1121,10 @@
         <v>2024</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>83</v>
@@ -1258,7 +1258,7 @@
         <v>25</v>
       </c>
       <c r="H19" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I19" s="1">
         <v>47</v>
